--- a/data/base_chuva_01443001.xlsx
+++ b/data/base_chuva_01443001.xlsx
@@ -1153,7 +1153,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1220,13 +1220,13 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1550,7 +1550,7 @@
     <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="24.005" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -1594,7 +1594,7 @@
     <col min="46" max="46" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="AT2" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4" t="s">
         <v>48</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
         <v>50</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4" t="s">
         <v>54</v>
       </c>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="AT6" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4" t="s">
         <v>56</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4" t="s">
         <v>58</v>
       </c>
@@ -2690,7 +2690,7 @@
       <c r="AS8" s="6"/>
       <c r="AT8" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4" t="s">
         <v>60</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4" t="s">
         <v>62</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4" t="s">
         <v>64</v>
       </c>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="AT11" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4" t="s">
         <v>66</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4" t="s">
         <v>68</v>
       </c>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="AT13" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4" t="s">
         <v>70</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4" t="s">
         <v>72</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4" t="s">
         <v>74</v>
       </c>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="AT16" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="4" t="s">
         <v>76</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="4" t="s">
         <v>78</v>
       </c>
@@ -4062,7 +4062,7 @@
       </c>
       <c r="AT18" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="4" t="s">
         <v>80</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="4" t="s">
         <v>82</v>
       </c>
@@ -4332,7 +4332,7 @@
       <c r="AS20" s="6"/>
       <c r="AT20" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="4" t="s">
         <v>84</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="4" t="s">
         <v>86</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="4" t="s">
         <v>88</v>
       </c>
@@ -4744,7 +4744,7 @@
       </c>
       <c r="AT23" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="4" t="s">
         <v>90</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="4" t="s">
         <v>92</v>
       </c>
@@ -5018,7 +5018,7 @@
       </c>
       <c r="AT25" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="4" t="s">
         <v>94</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="4" t="s">
         <v>96</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="4" t="s">
         <v>98</v>
       </c>
@@ -5430,7 +5430,7 @@
       </c>
       <c r="AT28" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="4" t="s">
         <v>100</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="4" t="s">
         <v>102</v>
       </c>
@@ -5704,7 +5704,7 @@
       </c>
       <c r="AT30" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="4" t="s">
         <v>104</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="4" t="s">
         <v>106</v>
       </c>
@@ -5974,7 +5974,7 @@
       <c r="AS32" s="6"/>
       <c r="AT32" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="4" t="s">
         <v>108</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="4" t="s">
         <v>110</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="4" t="s">
         <v>112</v>
       </c>
